--- a/Translation.xlsx
+++ b/Translation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="98">
   <si>
     <t xml:space="preserve">section</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">en</t>
   </si>
   <si>
-    <t xml:space="preserve">jp</t>
+    <t xml:space="preserve">ja</t>
   </si>
   <si>
     <t xml:space="preserve">de</t>
@@ -203,6 +203,232 @@
   </si>
   <si>
     <t xml:space="preserve">notation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">digital_skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title_programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">programming languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programmiersprache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprachen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">japanese_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japanese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日本語</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japanisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">japanese_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Native</t>
+  </si>
+  <si>
+    <t xml:space="preserve">母語</t>
+  </si>
+  <si>
+    <t xml:space="preserve">english_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">英語</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Englisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">english_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daily use for Business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ビジネス利用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Täglich für Business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">german_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">German</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドイツ語</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deutsch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">german_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Around B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ungefär B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">french_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フランス語</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Französisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">french_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persian_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ペルシア語</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persian_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ausbildungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">master_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M.E. in Computational Linguistics</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">修士 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">計算機言語学</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">master_school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nara Institute of science and Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奈良先端科学技術大学院大学</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bachelor_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.A. in Foreign Studies&amp;nbsp;(Persian studies)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">学士 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">外国語</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">B.A. in Foreign Studies (Persian studies)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bachelor_school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osaka University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大阪大学</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">berufliche Erfahrungen</t>
   </si>
 </sst>
 </file>
@@ -320,15 +546,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="52.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.2"/>
@@ -496,6 +723,312 @@
         <v>37</v>
       </c>
       <c r="C10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Translation.xlsx
+++ b/Translation.xlsx
@@ -60,6 +60,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">データサイエンティスト（</t>
     </r>
@@ -68,6 +69,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">NLP</t>
     </r>
@@ -76,6 +78,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">エンジニア）</t>
     </r>
@@ -87,7 +90,7 @@
     <t xml:space="preserve">introduction</t>
   </si>
   <si>
-    <t xml:space="preserve">I\"m specialized in NLP(Natural Language Processing) with my linguistics background.</t>
+    <t xml:space="preserve">I am specialized in NLP(Natural Language Processing) with my linguistics background.</t>
   </si>
   <si>
     <t xml:space="preserve">自然言語処理技術・機械学習の研究活動，または，これらの技術を使ったシステム開発を得意にしています。</t>
@@ -99,7 +102,7 @@
     <t xml:space="preserve">work_experience</t>
   </si>
   <si>
-    <t xml:space="preserve">For work experience, I have experience in data analytics from log data for the social game, machine learning techniques for NLP solutions, such as text summarization, document clustering/classification, information retrieval etc. Not only data analysis but also I have experience in system development for data analytics. For that, I\"m able to consider hardware, DB specification, deployment, and operations with using Jenkins, Docker etc. In the point of system admin, I have experience of business system migration for a small team. Thus, I\"m able to make IT/development plans with considering business roadmaps.</t>
+    <t xml:space="preserve">For work experience, I have experience in data analytics from log data for the social game, machine learning techniques for NLP solutions, such as text summarization, document clustering/classification, information retrieval etc. Not only data analysis but also I have experience in system development for data analytics. For that, I am able to consider hardware, DB specification, deployment, and operations with using Jenkins, Docker etc. In the point of system admin, I have experience of business system migration for a small team. Thus, I\"m able to make IT/development plans with considering business roadmaps.</t>
   </si>
   <si>
     <t xml:space="preserve">データ処理、データ解析、データ解析システムの設計、データ解析システムのための環境構築などの経験があります。一度限りの解析用プログラムの開発だけでなく、ハードウェアの選定からデータベースの設計、デプロイメント設計まで含めた安定的に運用できる解析システムの構築までが可能です。これまでにレポートシステム、テキストクラスタリングシステム、情報抽出システムの開発を手がけてきました。</t>
@@ -111,7 +114,7 @@
     <t xml:space="preserve">work_environment</t>
   </si>
   <si>
-    <t xml:space="preserve">I have +3 years work experience in an international work environment. In such environment, I\"m able to communicate with other members with English.</t>
+    <t xml:space="preserve">I have +3 years work experience in an international work environment. In such environment, I am able to communicate with other members with English.</t>
   </si>
   <si>
     <r>
@@ -119,6 +122,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">約</t>
     </r>
@@ -127,6 +131,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -135,6 +140,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年は英語が半公用語の開発チームに所属しており，また，１年以上の日本国外在住経験を持ち，英語で他の開発メンバーと仕事を進めることが可能です。</t>
     </r>
@@ -146,7 +152,7 @@
     <t xml:space="preserve">research_preference</t>
   </si>
   <si>
-    <t xml:space="preserve">For research perspective, I\"m interested in information extraction/information retrieval from the text. This is because I have worked for 3.5 years on projects to extract business useful information from the text which is posted to an opinion-platform called \"Fuman Kaitori\" so that I feel technical limitations of existing NLP methods.</t>
+    <t xml:space="preserve">For research perspective, I am interested in information extraction/information retrieval from the text. This is because I have worked for 3.5 years on projects to extract business useful information from the text which is posted to an opinion-platform called "Fuman Kaitori" so that I feel technical limitations of existing NLP methods.</t>
   </si>
   <si>
     <t xml:space="preserve">システム開発だけでなく、企業ブランディングのための研究活動計画の立案、研究連携活動の経験、対外論文発表もあります。</t>
@@ -178,6 +184,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">開発言語には</t>
     </r>
@@ -186,6 +193,7 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Python</t>
     </r>
@@ -194,6 +202,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">を主に利用しています。</t>
     </r>
@@ -351,6 +360,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">修士 </t>
     </r>
@@ -359,6 +369,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">/ </t>
     </r>
@@ -367,6 +378,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">計算機言語学</t>
     </r>
@@ -392,6 +404,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">学士 </t>
     </r>
@@ -400,6 +413,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">/ </t>
     </r>
@@ -408,6 +422,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">外国語</t>
     </r>
@@ -443,6 +458,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -463,11 +479,13 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -548,8 +566,8 @@
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B5" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -557,7 +575,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="52.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
@@ -613,7 +631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="129.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>

--- a/Translation.xlsx
+++ b/Translation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="97">
   <si>
     <t xml:space="preserve">section</t>
   </si>
@@ -102,7 +102,7 @@
     <t xml:space="preserve">work_experience</t>
   </si>
   <si>
-    <t xml:space="preserve">For work experience, I have experience in data analytics from log data for the social game, machine learning techniques for NLP solutions, such as text summarization, document clustering/classification, information retrieval etc. Not only data analysis but also I have experience in system development for data analytics. For that, I am able to consider hardware, DB specification, deployment, and operations with using Jenkins, Docker etc. In the point of system admin, I have experience of business system migration for a small team. Thus, I\"m able to make IT/development plans with considering business roadmaps.</t>
+    <t xml:space="preserve">For work experience, I have experience in data analytics from log data for the social game, machine learning techniques for NLP solutions, such as text summarization, document clustering/classification, information retrieval etc. Not only data analysis but also I have experience in system development for data analytics. For that, I am able to consider hardware, DB specification, deployment, and operations with using Jenkins, Docker etc. In the point of system admin, I have experience of business system migration for a small team. Thus, I am able to make IT/development plans with considering business roadmaps.</t>
   </si>
   <si>
     <t xml:space="preserve">データ処理、データ解析、データ解析システムの設計、データ解析システムのための環境構築などの経験があります。一度限りの解析用プログラムの開発だけでなく、ハードウェアの選定からデータベースの設計、デプロイメント設計まで含めた安定的に運用できる解析システムの構築までが可能です。これまでにレポートシステム、テキストクラスタリングシステム、情報抽出システムの開発を手がけてきました。</t>
@@ -396,7 +396,7 @@
     <t xml:space="preserve">bachelor_title</t>
   </si>
   <si>
-    <t xml:space="preserve">B.A. in Foreign Studies&amp;nbsp;(Persian studies)</t>
+    <t xml:space="preserve">B.A. in Foreign Studies (Persian studies)</t>
   </si>
   <si>
     <r>
@@ -426,9 +426,6 @@
       </rPr>
       <t xml:space="preserve">外国語</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">B.A. in Foreign Studies (Persian studies)</t>
   </si>
   <si>
     <t xml:space="preserve">bachelor_school</t>
@@ -1011,7 +1008,7 @@
         <v>91</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1019,16 +1016,16 @@
         <v>80</v>
       </c>
       <c r="B27" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="D27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E27" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1039,13 +1036,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Translation.xlsx
+++ b/Translation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="101">
   <si>
     <t xml:space="preserve">section</t>
   </si>
@@ -96,13 +96,13 @@
     <t xml:space="preserve">自然言語処理技術・機械学習の研究活動，または，これらの技術を使ったシステム開発を得意にしています。</t>
   </si>
   <si>
-    <t xml:space="preserve">Ziemlich Spezialisierung auf NLP (Natural Language Processing) mit Kentnisse des linguistischen Fachs.</t>
+    <t xml:space="preserve">Ziemlich Spezialisierung auf NLP (Natural Language Processing) mit Kenntnisse der Linguistik.</t>
   </si>
   <si>
     <t xml:space="preserve">work_experience</t>
   </si>
   <si>
-    <t xml:space="preserve">For work experience, I have experience in data analytics from log data for the social game, machine learning techniques for NLP solutions, such as text summarization, document clustering/classification, information retrieval etc. Not only data analysis but also I have experience in system development for data analytics. For that, I am able to consider hardware, DB specification, deployment, and operations with using Jenkins, Docker etc. In the point of system admin, I have experience of business system migration for a small team. Thus, I am able to make IT/development plans with considering business roadmaps.</t>
+    <t xml:space="preserve">For work experience, I have experience in data analytics from log data for the social game, machine learning techniques for NLP solutions, such as text summarization, document clustering/classification, information retrieval, etc. Not only data analysis but also I have experience in system development for data analytics. For that, I can consider hardware, DB specification, deployment, and operations using Jenkins, Docker, etc. In the point of system admin, I have experience in business system migration for a small team. Thus, I can make IT/development plans by considering business roadmaps.</t>
   </si>
   <si>
     <t xml:space="preserve">データ処理、データ解析、データ解析システムの設計、データ解析システムのための環境構築などの経験があります。一度限りの解析用プログラムの開発だけでなく、ハードウェアの選定からデータベースの設計、デプロイメント設計まで含めた安定的に運用できる解析システムの構築までが可能です。これまでにレポートシステム、テキストクラスタリングシステム、情報抽出システムの開発を手がけてきました。</t>
@@ -114,7 +114,7 @@
     <t xml:space="preserve">work_environment</t>
   </si>
   <si>
-    <t xml:space="preserve">I have +3 years work experience in an international work environment. In such environment, I am able to communicate with other members with English.</t>
+    <t xml:space="preserve">I have +3 years of work experience in an international work environment. In such an environment, I can communicate with other members with English.</t>
   </si>
   <si>
     <r>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">research_preference</t>
   </si>
   <si>
-    <t xml:space="preserve">For research perspective, I am interested in information extraction/information retrieval from the text. This is because I have worked for 3.5 years on projects to extract business useful information from the text which is posted to an opinion-platform called "Fuman Kaitori" so that I feel technical limitations of existing NLP methods.</t>
+    <t xml:space="preserve">For a research perspective, I am interested in information extraction/information retrieval from the text. This is because I have worked for 3.5 years on projects to extract business useful information from the text which is posted to an opinion-platform called "Fuman Kaitori" so that I feel technical limitations of existing NLP methods.</t>
   </si>
   <si>
     <t xml:space="preserve">システム開発だけでなく、企業ブランディングのための研究活動計画の立案、研究連携活動の経験、対外論文発表もあります。</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">research_experience</t>
   </si>
   <si>
-    <t xml:space="preserve">To this day, I had research experience in Auto-Error-Correction of English text, document classification for folk narratives and Rule-based translation of Sign language from Japanese text.</t>
+    <t xml:space="preserve">To this day, I had research experience in Auto-Error-Correction of English text, document classification for folk narratives, and Rule-based translation of Sign language from Japanese text.</t>
   </si>
   <si>
     <t xml:space="preserve">研究面では，自然言語処理技術，特に計算機を使った物語・小説の構造化という分野に興味があります。これまでに取り組んできた内容には，自然言語処理技術を利用した英文誤りの自動訂正，自然言語文で書かれた文章を手話で表現する研究があります。</t>
@@ -223,6 +223,9 @@
     <t xml:space="preserve">programming languages</t>
   </si>
   <si>
+    <t xml:space="preserve">プログラミング言語</t>
+  </si>
+  <si>
     <t xml:space="preserve">Programmiersprache</t>
   </si>
   <si>
@@ -232,6 +235,9 @@
     <t xml:space="preserve">Languages</t>
   </si>
   <si>
+    <t xml:space="preserve">語学</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sprachen</t>
   </si>
   <si>
@@ -346,6 +352,9 @@
     <t xml:space="preserve">Education</t>
   </si>
   <si>
+    <t xml:space="preserve">学歴</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ausbildungen</t>
   </si>
   <si>
@@ -438,6 +447,9 @@
   </si>
   <si>
     <t xml:space="preserve">Work experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">職歴</t>
   </si>
   <si>
     <t xml:space="preserve">berufliche Erfahrungen</t>
@@ -450,7 +462,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -483,6 +495,11 @@
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -527,7 +544,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -542,6 +559,14 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -563,8 +588,8 @@
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B5" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -628,7 +653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -641,7 +666,7 @@
       <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -749,283 +774,283 @@
       <c r="C11" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>40</v>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1036,13 +1061,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Translation.xlsx
+++ b/Translation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="99">
   <si>
     <t xml:space="preserve">section</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">brief_title</t>
   </si>
   <si>
-    <t xml:space="preserve">Data Scientist/Data engineer</t>
+    <t xml:space="preserve">P.h.d candidate at Eurecom, France with a strong background as a Data Scientist/Data engineer. The main research topic is “Simulator calibration with Bayesian estimations”.</t>
   </si>
   <si>
     <r>
@@ -84,7 +84,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Data Scientist/Data engineer, der in Frankfurt am Main wohnt.</t>
+    <t xml:space="preserve">Doktorand in Frankreich, mit der erfahrene Kenntnisse auf Data Scientist/Data engineer. Das aktuelle Forschungsthema ist "Simulator calibration with Bayesian estimations".</t>
   </si>
   <si>
     <t xml:space="preserve">introduction</t>
@@ -301,13 +301,7 @@
     <t xml:space="preserve">german_exp</t>
   </si>
   <si>
-    <t xml:space="preserve">Around B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B2+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ungefär B2</t>
+    <t xml:space="preserve">B2</t>
   </si>
   <si>
     <t xml:space="preserve">french_name</t>
@@ -462,7 +456,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -495,11 +489,6 @@
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -544,7 +533,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -565,41 +554,36 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="52.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -636,7 +620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -894,10 +878,10 @@
         <v>67</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -905,16 +889,16 @@
         <v>43</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="E19" s="0" t="s">
         <v>71</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -922,16 +906,16 @@
         <v>43</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -939,16 +923,16 @@
         <v>43</v>
       </c>
       <c r="B21" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="E21" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -956,101 +940,101 @@
         <v>43</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>83</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E25" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B26" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E26" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B27" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E27" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1061,13 +1045,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Translation.xlsx
+++ b/Translation.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">brief_title</t>
   </si>
   <si>
-    <t xml:space="preserve">P.h.d candidate at Eurecom, France with a strong background as a Data Scientist/Data engineer. The main research topic is “Simulator calibration with Bayesian estimations”.</t>
+    <t xml:space="preserve">P.h.d candidate at Eurecom, France with a strong background as a Data Scientist/Data engineer. The main research topic is “Variable Detection via Maximum Mean Discrepancy (MMD)”.</t>
   </si>
   <si>
     <r>
@@ -84,7 +84,32 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Doktorand in Frankreich, mit der erfahrene Kenntnisse auf Data Scientist/Data engineer. Das aktuelle Forschungsthema ist "Simulator calibration with Bayesian estimations".</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Doktorand in Frankreich, mit der erfahrene Kenntnisse auf Data Scientist/Data engineer. Das aktuelle Forschungsthema ist </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">“Variable Detection via Maximum Mean Discrepancy (MMD)”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">introduction</t>
@@ -114,7 +139,43 @@
     <t xml:space="preserve">work_environment</t>
   </si>
   <si>
-    <t xml:space="preserve">I have +3 years of work experience in an international work environment. In such an environment, I can communicate with other members with English.</t>
+    <t xml:space="preserve">I have worked in an international work environment more than 5 years. English has been the communication language.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5年以上の日本国外在住経験を持ち、基本的には英語で他の開発メンバーと仕事を進めることが可能です。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich habe +5 Jahre Berufserfahrung in einem internationalen Team. Dafür kann ich auf Englisch mit anderen Kollegen kommunizieren.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">research_preference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For a research perspective, I am interested in information extraction/information retrieval from the text. This is because I have worked for 3.5 years on projects to extract business useful information from the text which is posted to an opinion-platform so that I feel technical limitations of existing NLP methods.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">システム開発だけでなく、企業ブランディングのための研究活動計画の立案、研究連携活動の経験、対外論文発表もあります。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aus Forschungssicht sind meine Interessen auf dem Information-Extraction aus der Text-Daten. Das ist weil, ich mich bisher mehr 5 Jahren auf einem Projekt mit dem Information-Extraction beschäftigt habe. Das Projekt ist für eine Meinungsplattform.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">research_experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To this day, I had research experience in Auto-Error-Correction of English text, document classification for folk narratives, and Rule-based translation of Sign language from Japanese text.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">研究面では，自然言語処理技術，特に計算機を使った物語・小説の構造化という分野に興味があります。これまでに取り組んできた内容には，自然言語処理技術を利用した英文誤りの自動訂正，自然言語文で書かれた文章を手話で表現する研究があります。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mein Theme der Forschung war während meinem Master ein automatischen Fehlerkorrektur von englischem Text, der Klassifizierung von Dokumenten für Volkserzählungen und ein regelbasierten Übersetzung der Gebärdensprache auf Japanisch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end_sentence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I use Python mainly.</t>
   </si>
   <si>
     <r>
@@ -124,16 +185,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">約</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
+      <t xml:space="preserve">開発言語には</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Python</t>
     </r>
     <r>
       <rPr>
@@ -142,68 +203,6 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">年は英語が半公用語の開発チームに所属しており，また，１年以上の日本国外在住経験を持ち，英語で他の開発メンバーと仕事を進めることが可能です。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ich habe +3 Jahre Berufserfahrung in einem internationalen Team. Dafür kann ich auf Englisch mit anderen Mitgliedern des Teams kommunizieren.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">research_preference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For a research perspective, I am interested in information extraction/information retrieval from the text. This is because I have worked for 3.5 years on projects to extract business useful information from the text which is posted to an opinion-platform called "Fuman Kaitori" so that I feel technical limitations of existing NLP methods.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">システム開発だけでなく、企業ブランディングのための研究活動計画の立案、研究連携活動の経験、対外論文発表もあります。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aus Forschungssicht sind meine Interessen auf dem Information-Extraction aus der Text-Daten. Das ist weil, ich mich bisher mehr 5 Jahren auf einem Projekt mit dem Information-Extraction beschäftigt habe. Das Projekt ist für eine Meinungsplattform.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">research_experience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To this day, I had research experience in Auto-Error-Correction of English text, document classification for folk narratives, and Rule-based translation of Sign language from Japanese text.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">研究面では，自然言語処理技術，特に計算機を使った物語・小説の構造化という分野に興味があります。これまでに取り組んできた内容には，自然言語処理技術を利用した英文誤りの自動訂正，自然言語文で書かれた文章を手話で表現する研究があります。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mein Theme der Forschung war während meinem Master ein automatischen Fehlerkorrektur von englischem Text, der Klassifizierung von Dokumenten für Volkserzählungen und ein regelbasierten Übersetzung der Gebärdensprache auf Japanisch.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end_sentence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I use Python mainly.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">開発言語には</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Python</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">を主に利用しています。</t>
     </r>
   </si>
@@ -319,7 +318,7 @@
     <t xml:space="preserve">french_exp</t>
   </si>
   <si>
-    <t xml:space="preserve">A2</t>
+    <t xml:space="preserve">B1</t>
   </si>
   <si>
     <t xml:space="preserve">persian_name</t>
@@ -456,7 +455,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -489,6 +488,11 @@
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -574,15 +578,15 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="52.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="73.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.2"/>
   </cols>
   <sheetData>
@@ -620,7 +624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="101.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -671,7 +675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>

--- a/Translation.xlsx
+++ b/Translation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="95">
   <si>
     <t xml:space="preserve">section</t>
   </si>
@@ -52,9 +52,54 @@
     <t xml:space="preserve">brief_title</t>
   </si>
   <si>
-    <t xml:space="preserve">P.h.d candidate at Eurecom, France with a strong background as a Data Scientist/Data engineer. The main research topic is “Variable Detection via Maximum Mean Discrepancy (MMD)”.</t>
-  </si>
-  <si>
+    <t xml:space="preserve">P.h.d candidate at Eurecom, France with a strong background as a Data Scientist/Data engineer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">フランスで博士課程に所属しています。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doktorand in Frankreich, mit der erfahrene Kenntnisse auf Data Scientist/Data engineer. Das aktuelle Forschungsthema ist “Variable Detection via Maximum Mean Discrepancy (MMD)”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">introduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bachelor's degree in foreign language, Master of Engineering.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学部時代で言語学と外国語を学び、修士課程で自然言語処理の研究を始めました。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ziemlich Spezialisierung auf NLP (Natural Language Processing) mit Kenntnisse der Linguistik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work_experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have worked in the industry for 7 years. Abundant and rich experiences in data analysis, machine learning projects, especially Natural Language Processing fields.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">企業に所属自体には、自然言語処理技術と機械学習を利用したシステム開発を得意としていました。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meine Berufserfahrung sind auf Data-Analysis für Nutzerdaten des Videospiels, Künstlich-Intelligenz und Machine-Leaning ziemlich für NLP Projekten sowie Text-summarization, Document-clustering/classification, Information-retrieval etc. Nicht nur Data-Analysis, sondern auch Erfahrungen auf System-Entwickelungen. Dafür ist es möglich, der Entwurf des Hardwares, DB-Spezifikations, Test-Environment sowie Docker oder Continuous-integrations zu planen. Im Bereich Systemadministration habe ich Erfahrung mit der Migration von Geschäftssystemen für ein kleines Team.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work_environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 years in Germany and 3 years in France. Although English is the default communication language, I have made my best efforts to master local languages.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ドイツに</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -62,7 +107,263 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">データサイエンティスト（</t>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">年、フランスに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">年居住しています。英語を基本言語として利用していますが、ドイツ語・フランス語の両方もある程度のレベルまで習得しました。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich habe +5 Jahre Berufserfahrung in einem internationalen Team. Dafür kann ich auf Englisch mit anderen Kollegen kommunizieren.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">research_preference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aus Forschungssicht sind meine Interessen auf dem Information-Extraction aus der Text-Daten. Das ist weil, ich mich bisher mehr 5 Jahren auf einem Projekt mit dem Information-Extraction beschäftigt habe. Das Projekt ist für eine Meinungsplattform.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">research_experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currently, my research field is in explainable AI, validation of simulation models. I have proposed a variable selection method using Maximum Mean Discrepancy.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">現在の研究分野は説明可能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">AI, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">シミュレーションモデルのパラメタ推定。具体的には</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Maximum Mean Discrepancy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を利用した変数選択の研究をしています。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Mein Theme der Forschung war während meinem Master ein automatischen Fehlerkorrektur von englischem Text, der Klassifizierung von Dokumenten für Volkserzählungen und ein regelbasierten Übersetzung der Gebärdensprache auf Japanisch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end_sentence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meine Hauptprogramming-Sprache ist Python.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">digital_skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title_programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programming Languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プログラミング言語</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programmiersprache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">語学</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprachen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">japanese_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japanese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日本語</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japanisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">japanese_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Native</t>
+  </si>
+  <si>
+    <t xml:space="preserve">母語</t>
+  </si>
+  <si>
+    <t xml:space="preserve">english_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">英語</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Englisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">english_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daily use for Business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ビジネス利用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Täglich für Business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">german_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">German</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドイツ語</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deutsch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">german_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">french_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フランス語</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Französisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">french_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persian_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ペルシア語</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persian_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学歴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ausbildungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">master_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M.E. in Computational Linguistics</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">修士 </t>
     </r>
     <r>
       <rPr>
@@ -71,360 +372,58 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">NLP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC"/>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">計算機言語学</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">master_school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nara Institute of science and Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奈良先端科学技術大学院大学</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bachelor_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.A. in Foreign Studies (Persian studies)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">学士 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">エンジニア）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Doktorand in Frankreich, mit der erfahrene Kenntnisse auf Data Scientist/Data engineer. Das aktuelle Forschungsthema ist </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">“Variable Detection via Maximum Mean Discrepancy (MMD)”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">introduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am specialized in NLP(Natural Language Processing) with my linguistics background.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自然言語処理技術・機械学習の研究活動，または，これらの技術を使ったシステム開発を得意にしています。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ziemlich Spezialisierung auf NLP (Natural Language Processing) mit Kenntnisse der Linguistik.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">work_experience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For work experience, I have experience in data analytics from log data for the social game, machine learning techniques for NLP solutions, such as text summarization, document clustering/classification, information retrieval, etc. Not only data analysis but also I have experience in system development for data analytics. For that, I can consider hardware, DB specification, deployment, and operations using Jenkins, Docker, etc. In the point of system admin, I have experience in business system migration for a small team. Thus, I can make IT/development plans by considering business roadmaps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">データ処理、データ解析、データ解析システムの設計、データ解析システムのための環境構築などの経験があります。一度限りの解析用プログラムの開発だけでなく、ハードウェアの選定からデータベースの設計、デプロイメント設計まで含めた安定的に運用できる解析システムの構築までが可能です。これまでにレポートシステム、テキストクラスタリングシステム、情報抽出システムの開発を手がけてきました。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meine Berufserfahrung sind auf Data-Analysis für Nutzerdaten des Videospiels, Künstlich-Intelligenz und Machine-Leaning ziemlich für NLP Projekten sowie Text-summarization, Document-clustering/classification, Information-retrieval etc. Nicht nur Data-Analysis, sondern auch Erfahrungen auf System-Entwickelungen. Dafür ist es möglich, der Entwurf des Hardwares, DB-Spezifikations, Test-Environment sowie Docker oder Continuous-integrations zu planen. Im Bereich Systemadministration habe ich Erfahrung mit der Migration von Geschäftssystemen für ein kleines Team.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">work_environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I have worked in an international work environment more than 5 years. English has been the communication language.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5年以上の日本国外在住経験を持ち、基本的には英語で他の開発メンバーと仕事を進めることが可能です。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ich habe +5 Jahre Berufserfahrung in einem internationalen Team. Dafür kann ich auf Englisch mit anderen Kollegen kommunizieren.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">research_preference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For a research perspective, I am interested in information extraction/information retrieval from the text. This is because I have worked for 3.5 years on projects to extract business useful information from the text which is posted to an opinion-platform so that I feel technical limitations of existing NLP methods.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">システム開発だけでなく、企業ブランディングのための研究活動計画の立案、研究連携活動の経験、対外論文発表もあります。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aus Forschungssicht sind meine Interessen auf dem Information-Extraction aus der Text-Daten. Das ist weil, ich mich bisher mehr 5 Jahren auf einem Projekt mit dem Information-Extraction beschäftigt habe. Das Projekt ist für eine Meinungsplattform.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">research_experience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To this day, I had research experience in Auto-Error-Correction of English text, document classification for folk narratives, and Rule-based translation of Sign language from Japanese text.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">研究面では，自然言語処理技術，特に計算機を使った物語・小説の構造化という分野に興味があります。これまでに取り組んできた内容には，自然言語処理技術を利用した英文誤りの自動訂正，自然言語文で書かれた文章を手話で表現する研究があります。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mein Theme der Forschung war während meinem Master ein automatischen Fehlerkorrektur von englischem Text, der Klassifizierung von Dokumenten für Volkserzählungen und ein regelbasierten Übersetzung der Gebärdensprache auf Japanisch.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end_sentence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I use Python mainly.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">開発言語には</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Python</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">を主に利用しています。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Meine Hauptprogramming-Sprache ist Python.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">digital_skills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title_programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">programming languages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プログラミング言語</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programmiersprache</t>
-  </si>
-  <si>
-    <t xml:space="preserve">languages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Languages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">語学</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprachen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">japanese_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japanese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">日本語</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japanisch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">japanese_exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Native</t>
-  </si>
-  <si>
-    <t xml:space="preserve">母語</t>
-  </si>
-  <si>
-    <t xml:space="preserve">english_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">英語</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Englisch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">english_exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daily use for Business</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ビジネス利用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Täglich für Business</t>
-  </si>
-  <si>
-    <t xml:space="preserve">german_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">German</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ドイツ語</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deutsch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">german_exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">french_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">French</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フランス語</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Französisch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">french_exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">persian_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Persian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ペルシア語</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Persisch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">persian_exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学歴</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ausbildungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">master_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M.E. in Computational Linguistics</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">修士 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">/ </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">計算機言語学</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">master_school</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nara Institute of science and Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">奈良先端科学技術大学院大学</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bachelor_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.A. in Foreign Studies (Persian studies)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">学士 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
       </rPr>
       <t xml:space="preserve">外国語</t>
     </r>
@@ -466,16 +465,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -485,14 +487,15 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -577,11 +580,11 @@
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.79"/>
@@ -624,7 +627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="101.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -641,7 +644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="79" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -658,7 +661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="333" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -675,7 +678,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="79" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -692,38 +695,34 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="145.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="157.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="145.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -731,16 +730,12 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="0" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -748,297 +743,297 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="C13" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>84</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1049,19 +1044,19 @@
         <v>6</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Translation.xlsx
+++ b/Translation.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="103">
   <si>
     <t xml:space="preserve">section</t>
   </si>
@@ -52,10 +52,10 @@
     <t xml:space="preserve">brief_title</t>
   </si>
   <si>
-    <t xml:space="preserve">P.h.d candidate at Eurecom, France with a strong background as a Data Scientist/Data engineer. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">フランスで博士課程に所属しています。</t>
+    <t xml:space="preserve">Research Engineer and Developer in the Field of Data Science (Ph.D. in Informatics from Eurecom/Sorbonne Université).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">機械学習リサーチエンジニア・開発者 (情報工学博士)</t>
   </si>
   <si>
     <t xml:space="preserve">Doktorand in Frankreich, mit der erfahrene Kenntnisse auf Data Scientist/Data engineer. Das aktuelle Forschungsthema ist “Variable Detection via Maximum Mean Discrepancy (MMD)”.</t>
@@ -88,7 +88,7 @@
     <t xml:space="preserve">work_environment</t>
   </si>
   <si>
-    <t xml:space="preserve">3 years in Germany and 3 years in France. Although English is the default communication language, I have made my best efforts to master local languages.</t>
+    <t xml:space="preserve">3 years in Germany and 3 years in France. Although English is the default language for communication, I have made my best efforts to master the local languages.</t>
   </si>
   <si>
     <r>
@@ -275,10 +275,10 @@
     <t xml:space="preserve">english_exp</t>
   </si>
   <si>
-    <t xml:space="preserve">daily use for Business</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ビジネス利用</t>
+    <t xml:space="preserve">Business Daily Use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">標準利用言語</t>
   </si>
   <si>
     <t xml:space="preserve">Täglich für Business</t>
@@ -350,48 +350,43 @@
     <t xml:space="preserve">Ausbildungen</t>
   </si>
   <si>
+    <t xml:space="preserve">doctor_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhD (Informatics, Data Science)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">博士 (情報工学)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doctor_school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eurecom/Sorbonne Université</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eurecom / ソルボンヌ大学</t>
+  </si>
+  <si>
     <t xml:space="preserve">master_title</t>
   </si>
   <si>
     <t xml:space="preserve">M.E. in Computational Linguistics</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">修士 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">計算機言語学</t>
-    </r>
+    <t xml:space="preserve">修士 (計算機言語学)</t>
   </si>
   <si>
     <t xml:space="preserve">master_school</t>
   </si>
   <si>
+    <t xml:space="preserve">Nara Institute of science and Technology, Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奈良先端科学技術大学院大学</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nara Institute of science and Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">奈良先端科学技術大学院大学</t>
   </si>
   <si>
     <t xml:space="preserve">bachelor_title</t>
@@ -416,7 +411,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">/ </t>
+      <t xml:space="preserve">(</t>
     </r>
     <r>
       <rPr>
@@ -425,17 +420,20 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">外国語</t>
+      <t xml:space="preserve">外国語)</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">bachelor_school</t>
   </si>
   <si>
+    <t xml:space="preserve">Osaka University, Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大阪大学</t>
+  </si>
+  <si>
     <t xml:space="preserve">Osaka University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大阪大学</t>
   </si>
   <si>
     <t xml:space="preserve">Work experience</t>
@@ -540,24 +538,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -573,484 +575,618 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="52.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="73.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="52.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="73.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="79" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="333" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="79" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="145.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="145.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="0" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="16.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="E27" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>94</v>
+      <c r="C30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Translation.xlsx
+++ b/Translation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="99">
   <si>
     <t xml:space="preserve">section</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">brief_title</t>
   </si>
   <si>
-    <t xml:space="preserve">Research Engineer and Developer in the Field of Data Science (Ph.D. in Informatics from Eurecom/Sorbonne Université).</t>
+    <t xml:space="preserve">Ph.D. in Informatics (Sorbonne Université).</t>
   </si>
   <si>
     <r>
@@ -62,7 +62,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">機械学習リサーチエンジニア・開発者 </t>
+      <t xml:space="preserve">AI/LLM/機械学習リサーチエンジニア</t>
     </r>
     <r>
       <rPr>
@@ -91,6 +91,15 @@
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">。</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Doktorand in Frankreich, mit der erfahrene Kenntnisse auf Data Scientist/Data engineer. Das aktuelle Forschungsthema ist “Variable Detection via Maximum Mean Discrepancy (MMD)”.</t>
@@ -99,10 +108,10 @@
     <t xml:space="preserve">introduction</t>
   </si>
   <si>
-    <t xml:space="preserve">Bachelor's degree in foreign language, Master of Engineering.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学部時代で言語学と外国語を学び、修士課程で自然言語処理の研究を始めました。</t>
+    <t xml:space="preserve">I architect and deploy robust Large Language Model (LLM) pipelines with a dedicated focus on model trustworthiness and hallucination mitigation. By bridging the gap between engineering and research, I apply Explainable AI (XAI) and Kernel-based methods to ensure statistical rigor in the validation of simulation models and modern AI architectures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LLMの信頼性評価と評価システムの構築を得意とします。カーネル法に基づく機械学習への理解が深く、AI/LLMシステムの評価にカーネル法を利用した手法の開発と提案をしています。</t>
   </si>
   <si>
     <t xml:space="preserve">Ziemlich Spezialisierung auf NLP (Natural Language Processing) mit Kenntnisse der Linguistik.</t>
@@ -111,22 +120,16 @@
     <t xml:space="preserve">work_experience</t>
   </si>
   <si>
-    <t xml:space="preserve">I have worked in the industry for 7 years. Abundant and rich experiences in data analysis, machine learning projects, especially Natural Language Processing fields.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">企業に所属時には、自然言語処理技術と機械学習を利用したシステム開発を得意としていました。</t>
-  </si>
-  <si>
     <t xml:space="preserve">Meine Berufserfahrung sind auf Data-Analysis für Nutzerdaten des Videospiels, Künstlich-Intelligenz und Machine-Leaning ziemlich für NLP Projekten sowie Text-summarization, Document-clustering/classification, Information-retrieval etc. Nicht nur Data-Analysis, sondern auch Erfahrungen auf System-Entwickelungen. Dafür ist es möglich, der Entwurf des Hardwares, DB-Spezifikations, Test-Environment sowie Docker oder Continuous-integrations zu planen. Im Bereich Systemadministration habe ich Erfahrung mit der Migration von Geschäftssystemen für ein kleines Team.</t>
   </si>
   <si>
     <t xml:space="preserve">work_environment</t>
   </si>
   <si>
-    <t xml:space="preserve">3 years in Germany and 3 years in France. Although English is the default language for communication, I have made my best efforts to master the local languages.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ドイツに3年、フランスに3年居住しています。英語を基本言語として利用していますが、ドイツ語・フランス語の両方もある程度のレベルまで習得しました。</t>
+    <t xml:space="preserve">As an internationally adaptive professional with 7 years of industrial experience, I bring a proven track record of flexibility across borders. Having spent two years in Germany and five years in France, I thrive in trilingual, culturally nuanced environments. I specialize in translating English-led communication into localized technical success, ensuring high-level research is applicable in any global market.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019年からEU地域に居住。英語を基本言語として利用していますが、ドイツ語・フランス語の両方も理解します。PhDをフランスで取得し、ドイツとフランスの両国で多言語環境において成果を出しています。</t>
   </si>
   <si>
     <t xml:space="preserve">Ich habe +5 Jahre Berufserfahrung in einem internationalen Team. Dafür kann ich auf Englisch mit anderen Kollegen kommunizieren.</t>
@@ -141,24 +144,10 @@
     <t xml:space="preserve">research_experience</t>
   </si>
   <si>
-    <t xml:space="preserve">Currently, my research field is in explainable AI, validation of simulation models. I have proposed a variable selection method using Maximum Mean Discrepancy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">現在の研究分野は説明可能AI, シミュレーションモデルのパラメタ推定。具体的にはMaximum Mean Discrepancyを利用した変数選択の研究をしています。</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mein Theme der Forschung war während meinem Master ein automatischen Fehlerkorrektur von englischem Text, der Klassifizierung von Dokumenten für Volkserzählungen und ein regelbasierten Übersetzung der Gebärdensprache auf Japanisch.</t>
   </si>
   <si>
     <t xml:space="preserve">end_sentence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here is my skill in bullet lines, &lt;br /&gt;
-Research fields with rich experiences in: Large Language Models, Probabilistic machine learning methods (Kernel methods). &lt;br /&gt;
-Programming Skills: Advanced Python and Frontend frameworks. &lt;br /&gt;
-CI/CD Skills: Docker. &lt;br /&gt;
-Cloud Platforms: AWS, GCP.  &lt;br /&gt;
-Industrial experiences: 7 years. &lt;br /&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Meine Hauptprogramming-Sprache ist Python.</t>
@@ -744,8 +733,8 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -791,7 +780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="101.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -832,14 +821,10 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -847,16 +832,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -864,12 +849,12 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="4"/>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -877,31 +862,25 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="146.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="5"/>
       <c r="E9" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -909,325 +888,325 @@
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1238,13 +1217,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
